--- a/Listado de Papers.xlsx
+++ b/Listado de Papers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\OJO\Uninorte\Clases dictadas Online\202130\Compartir\Est 1\5. Artículos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10951CD-29D7-4C0C-A990-14493000ACA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2F713-EABA-4E85-833A-B353D8F2C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51802458-E8CC-4424-B13F-CF4BDFBEAF20}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Año Publicac.</t>
   </si>
@@ -216,13 +216,22 @@
   </si>
   <si>
     <t>Física</t>
+  </si>
+  <si>
+    <t>Descripción estadística del COVID- 19 según el grupo etario en Colombia</t>
+  </si>
+  <si>
+    <t>Repertorio de Medicina y Cirugía</t>
+  </si>
+  <si>
+    <t>https://revistas.fucsalud.edu.co/index.php/repertorio/article/view/1098/1275</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,27 +270,12 @@
     <font>
       <u/>
       <sz val="8"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,27 +373,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,22 +401,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -849,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0431DD2-A411-4B29-AE00-EFFD75616151}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,19 +844,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
@@ -896,10 +875,10 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -916,10 +895,10 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="7"/>
@@ -928,21 +907,21 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -955,16 +934,16 @@
         <v>2020</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -977,60 +956,60 @@
         <v>2020</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2020</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1043,16 +1022,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1062,19 +1041,19 @@
     </row>
     <row r="10" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1084,154 +1063,177 @@
     </row>
     <row r="11" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2017</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>2017</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>2015</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>2012</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>2012</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>2011</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>2010</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{8AFA6278-95AF-46C7-BCBD-CBF0DBDB08A6}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{9A217B43-4F35-4477-85F8-BC5B87DF1204}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{49D1079A-7C35-40B2-9934-73837E49D3F4}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{1CC407DB-B3A4-4B0C-98F5-914F99316D73}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{263EE259-2B57-4E59-94DD-0D742C0F46DF}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{F5CD3101-EF3D-43CA-846E-6B2E7E015768}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{23F6F48E-204D-49C1-B056-53F894F736AD}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{C6A00722-C23B-4545-9AE1-D9BA7526AA80}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{31FCE631-ACEC-4BAB-A75E-3EDD1F59AF48}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{8AFA6278-95AF-46C7-BCBD-CBF0DBDB08A6}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{9A217B43-4F35-4477-85F8-BC5B87DF1204}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{49D1079A-7C35-40B2-9934-73837E49D3F4}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{1CC407DB-B3A4-4B0C-98F5-914F99316D73}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{263EE259-2B57-4E59-94DD-0D742C0F46DF}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{F5CD3101-EF3D-43CA-846E-6B2E7E015768}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{23F6F48E-204D-49C1-B056-53F894F736AD}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{C6A00722-C23B-4545-9AE1-D9BA7526AA80}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{31FCE631-ACEC-4BAB-A75E-3EDD1F59AF48}"/>
     <hyperlink ref="E3" r:id="rId10" xr:uid="{2141C372-8E9A-4B9A-95EA-3817C7E166E7}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{CCFD37B7-7BC4-49A4-9521-55597EB1350A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>